--- a/result/reg/2022_solo_20s_ratio.xlsx
+++ b/result/reg/2022_solo_20s_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.579</v>
+        <v>-0.461</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.531</v>
+        <v>-0.444</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.549</v>
+        <v>-0.388</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,11 +504,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>한식음식점</t>
+          <t>쇼핑업체수</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.501</v>
+        <v>-0.157</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -516,15 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.189</v>
+        <v>-0.119</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.274</v>
+        <v>-0.122</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -535,58 +535,58 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>월평균소득</t>
+          <t>기타대학</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.152</v>
+        <v>0.083</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.179</v>
+        <v>0.082</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.159</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>슈퍼마켓</t>
+          <t>지가변동률</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08799999999999999</v>
+        <v>0.131</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.065</v>
+        <v>0.098</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -603,121 +603,127 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.068</v>
+        <v>0.146</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>지가변동률</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.118</v>
+        <v>0.323</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.075</v>
+        <v>0.167</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>기타대학</t>
+          <t>미용실</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.091</v>
+        <v>0.015</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.362</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>커피-음료</t>
+          <t>대학교</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.073</v>
+        <v>0.437</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1</v>
+        <v>0.436</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>일식음식점</t>
+          <t>네일숍</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.284</v>
+        <v>0.291</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0.502</v>
+        <v>0.256</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -728,27 +734,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>편의점</t>
+          <t>제과점</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.426</v>
+        <v>-0.192</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.399</v>
+        <v>-0.257</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -759,27 +759,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.412</v>
+        <v>0.327</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.419</v>
+        <v>0.296</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -790,15 +784,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>네일숍</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.338</v>
+        <v>0.316</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -809,15 +803,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>미용실</t>
+          <t>한식음식점</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.338</v>
+        <v>-0.58</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -828,15 +822,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>일식음식점</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.382</v>
+        <v>0.257</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -851,7 +845,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.018</v>
+        <v>-0.04</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -870,7 +864,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.047</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -885,11 +879,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>패스트푸드점</t>
+          <t>커피-음료</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.144</v>
+        <v>0.034</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -904,11 +898,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>제과점</t>
+          <t>패스트푸드점</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.011</v>
+        <v>-0.091</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -927,11 +921,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -946,7 +940,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.068</v>
+        <v>0.055</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -961,11 +955,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>쇼핑업체수</t>
+          <t>슈퍼마켓</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.063</v>
+        <v>0.007</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -980,11 +974,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>지가</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04</v>
+        <v>-0.198</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -999,15 +993,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>지가</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.232</v>
+        <v>0.025</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1015,25 +1009,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>종사자수</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.209</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
